--- a/utils/uploads/attendanceSheet (2).xlsx
+++ b/utils/uploads/attendanceSheet (2).xlsx
@@ -342,8 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -688,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,12 +699,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -841,7 +840,7 @@
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>25</v>
       </c>
     </row>
@@ -864,7 +863,7 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>25</v>
       </c>
     </row>
@@ -887,7 +886,7 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>25</v>
       </c>
     </row>
@@ -910,8 +909,8 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="2">
-        <v>20</v>
+      <c r="G11" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,8 +932,8 @@
       <c r="F12" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="2">
-        <v>20</v>
+      <c r="G12" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,7 +955,9 @@
       <c r="F13" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -977,7 +978,9 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -998,7 +1001,9 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -1019,7 +1024,9 @@
       <c r="F16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1040,7 +1047,9 @@
       <c r="F17" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1061,7 +1070,9 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1082,7 +1093,9 @@
       <c r="F19" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1103,7 +1116,9 @@
       <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1124,7 +1139,9 @@
       <c r="F21" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="2"/>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1145,7 +1162,9 @@
       <c r="F22" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="2"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1166,7 +1185,9 @@
       <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="2"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1187,7 +1208,9 @@
       <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1208,8 +1231,8 @@
       <c r="F25" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="2">
-        <v>25</v>
+      <c r="G25" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,8 +1254,8 @@
       <c r="F26" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="2">
-        <v>25</v>
+      <c r="G26" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,8 +1277,8 @@
       <c r="F27" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="2">
-        <v>25</v>
+      <c r="G27" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1277,8 +1300,8 @@
       <c r="F28" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="2">
-        <v>25</v>
+      <c r="G28" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1300,8 +1323,8 @@
       <c r="F29" t="s">
         <v>32</v>
       </c>
-      <c r="G29" s="2">
-        <v>25</v>
+      <c r="G29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1323,8 +1346,8 @@
       <c r="F30" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="2">
-        <v>25</v>
+      <c r="G30" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,8 +1369,8 @@
       <c r="F31" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="2">
-        <v>25</v>
+      <c r="G31" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,8 +1392,8 @@
       <c r="F32" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="2">
-        <v>25</v>
+      <c r="G32" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
